--- a/cases-log.xlsx
+++ b/cases-log.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
   </bookViews>
@@ -20,11 +20,11 @@
     <definedName name="rate_cg">'work log-monthly'!$X$12</definedName>
     <definedName name="rate_table">'work log-monthly'!$W$6:$X$12</definedName>
     <definedName name="today">'work log-monthly'!$J$2</definedName>
-    <definedName name="WeekStart" localSheetId="0">'work log-monthly'!$L$2</definedName>
+    <definedName name="WeekStart" localSheetId="0">'work log-monthly'!$K$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId2"/>
+    <pivotCache cacheId="18" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>MON</t>
   </si>
@@ -95,10 +95,6 @@
   </si>
   <si>
     <t>Monthly Start</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Today</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -188,6 +184,10 @@
   </si>
   <si>
     <t>14:20~15:20</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Today</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +336,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +406,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,6 +614,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -629,14 +638,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -685,12 +688,6 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -701,6 +698,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -735,27 +741,27 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="45076.531363657406" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="18">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="45076.601096759259" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="24">
   <cacheSource type="worksheet">
-    <worksheetSource ref="Q6:S24" sheet="work log-monthly"/>
+    <worksheetSource ref="Q5:S29" sheet="work log-monthly"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="Case" numFmtId="0">
       <sharedItems containsBlank="1" count="7">
+        <m/>
         <s v="ca"/>
         <s v="cb"/>
         <s v="cc"/>
-        <m/>
         <s v="cd"/>
         <s v="cf"/>
         <s v="ce"/>
       </sharedItems>
     </cacheField>
     <cacheField name="wh_subt" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="4"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
     </cacheField>
     <cacheField name="sub1_rev" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="12000"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1000" maxValue="12500"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -767,39 +773,44 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="18">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="24">
   <r>
     <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
     <n v="3"/>
     <n v="6000"/>
   </r>
   <r>
-    <x v="1"/>
-    <n v="4"/>
-    <n v="10000"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="12500"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <n v="4"/>
     <n v="12000"/>
   </r>
   <r>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
   <r>
     <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
     <n v="2"/>
     <n v="4000"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="2500"/>
   </r>
@@ -809,24 +820,24 @@
     <n v="7000"/>
   </r>
   <r>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
   <r>
     <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
     <n v="2"/>
     <n v="4000"/>
   </r>
   <r>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="7000"/>
   </r>
   <r>
     <x v="5"/>
@@ -834,22 +845,47 @@
     <n v="1000"/>
   </r>
   <r>
-    <x v="3"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
   <r>
     <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
+    <n v="1"/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="5000"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="3"/>
+    <n v="4500"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <x v="2"/>
     <n v="2"/>
     <n v="5000"/>
   </r>
@@ -862,18 +898,18 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="W16:Y24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
       <items count="8">
-        <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
         <item x="4"/>
         <item x="6"/>
         <item x="5"/>
-        <item x="3"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -921,8 +957,8 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="加總 - wh_subt" fld="1" baseField="0" baseItem="3"/>
-    <dataField name="加總 - sub1_rev" fld="2" baseField="0" baseItem="3"/>
+    <dataField name="加總 - wh_subt" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="加總 - sub1_rev" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1141,8 +1177,8 @@
   </sheetPr>
   <dimension ref="B1:AI59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1157,8 +1193,8 @@
     <col min="20" max="20" width="7.5" style="3" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="6.125" style="3" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="2.875" style="3" customWidth="1"/>
-    <col min="23" max="23" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="15.5" style="3" customWidth="1"/>
     <col min="25" max="25" width="16.375" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.625" style="3" customWidth="1"/>
     <col min="27" max="27" width="8.5" style="3" customWidth="1"/>
@@ -1177,49 +1213,50 @@
       <c r="B1" s="2"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="22"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="2:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="37">
+      <c r="B2" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="36">
         <f ca="1">MONTH(monthlystart)</f>
         <v>5</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="24"/>
       <c r="H2" s="24">
         <f ca="1">EOMONTH(today,-1)+1</f>
         <v>45047</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25">
-        <f ca="1">TODAY()</f>
+      <c r="I2" s="16"/>
+      <c r="J2" s="24">
+        <f t="shared" ref="J2" ca="1" si="0">TODAY()</f>
         <v>45076</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25">
-        <f ca="1">monthlystart-WEEKDAY(TODAY(),2)+1</f>
-        <v>45046</v>
-      </c>
+      <c r="K2" s="46">
+        <f ca="1">monthlystart-WEEKDAY(TODAY(),2)+2</f>
+        <v>45047</v>
+      </c>
+      <c r="L2" s="46"/>
+      <c r="P2" s="16"/>
     </row>
     <row r="3" spans="2:25" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
@@ -1246,34 +1283,34 @@
     </row>
     <row r="4" spans="2:25" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16" t="s">
+      <c r="J4" s="17"/>
+      <c r="K4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="17"/>
+      <c r="M4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17" t="s">
+      <c r="N4" s="18"/>
+      <c r="O4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="17"/>
+      <c r="P4" s="18"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
@@ -1285,49 +1322,49 @@
     </row>
     <row r="5" spans="2:25" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="15"/>
-      <c r="C5" s="18" t="str">
+      <c r="C5" s="19" t="str">
         <f ca="1">(TEXT(WeekStart+0,"mmm dd"))</f>
-        <v>Apr 30</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18" t="str">
+        <v>May 01</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="str">
         <f ca="1">(TEXT(WeekStart+1,"mmm dd"))</f>
-        <v>May 01</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18" t="str">
+        <v>May 02</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19" t="str">
         <f ca="1">(TEXT(WeekStart+2,"mmm dd"))</f>
-        <v>May 02</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18" t="str">
+        <v>May 03</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19" t="str">
         <f ca="1">(TEXT(WeekStart+3,"mmm dd"))</f>
-        <v>May 03</v>
-      </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18" t="str">
+        <v>May 04</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19" t="str">
         <f ca="1">(TEXT(WeekStart+4,"mmm dd"))</f>
-        <v>May 04</v>
-      </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="20" t="str">
+        <v>May 05</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="21" t="str">
         <f ca="1">(TEXT(WeekStart+5,"mmm dd"))</f>
-        <v>May 05</v>
-      </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="21" t="str">
+        <v>May 06</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="22" t="str">
         <f ca="1">(TEXT(WeekStart+6,"mmm dd"))</f>
-        <v>May 06</v>
-      </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="43" t="s">
+        <v>May 07</v>
+      </c>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="44" t="s">
+      <c r="S5" s="48" t="s">
         <v>27</v>
-      </c>
-      <c r="S5" s="44" t="s">
-        <v>28</v>
       </c>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
@@ -1336,76 +1373,76 @@
       <c r="X5" s="14"/>
     </row>
     <row r="6" spans="2:25" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="33">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="32">
         <f>SUM(D7:D9)</f>
         <v>1</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="33">
+      <c r="E6" s="25"/>
+      <c r="F6" s="32">
         <f>SUM(F7:F9)</f>
         <v>2</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="33">
+      <c r="G6" s="25"/>
+      <c r="H6" s="32">
         <f>SUM(H7:H9)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="33">
+      <c r="I6" s="25"/>
+      <c r="J6" s="32">
         <f>SUM(J7:J9)</f>
         <v>3</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="33">
+      <c r="K6" s="25"/>
+      <c r="L6" s="32">
         <f>SUM(L7:L9)</f>
         <v>2</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="33">
+      <c r="M6" s="25"/>
+      <c r="N6" s="32">
         <f>SUM(N7:N9)</f>
         <v>2</v>
       </c>
-      <c r="O6" s="26"/>
-      <c r="P6" s="33">
+      <c r="O6" s="25"/>
+      <c r="P6" s="32">
         <f>SUM(P7:P9)</f>
         <v>2</v>
       </c>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
       <c r="T6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="U6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34" t="s">
-        <v>18</v>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="27">
+      <c r="C7" s="42"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="26">
         <v>2</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="30">
+      <c r="M7" s="43"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="29">
         <v>1</v>
       </c>
       <c r="Q7" s="3" t="str">
@@ -1416,8 +1453,8 @@
         <f>SUM(D7,F7,H7,J7,L7,N7,P7)</f>
         <v>3</v>
       </c>
-      <c r="S7" s="42">
-        <f>T7*R7</f>
+      <c r="S7" s="41">
+        <f t="shared" ref="S7:S9" si="1">LOOKUP(Q7,$W$7:$X$12)*R7</f>
         <v>6000</v>
       </c>
       <c r="T7" s="3">
@@ -1428,10 +1465,10 @@
         <f>INDEX($X$7:$X$12,MATCH(Q7,$W$7:$W$12,0))</f>
         <v>2000</v>
       </c>
-      <c r="W7" s="35" t="s">
+      <c r="W7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="X7" s="36">
+      <c r="X7" s="35">
         <v>2000</v>
       </c>
     </row>
@@ -1439,40 +1476,40 @@
       <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="28">
+      <c r="C8" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="27">
         <v>1</v>
       </c>
-      <c r="E8" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="28">
+      <c r="E8" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="27">
         <v>2</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="31">
+      <c r="G8" s="42"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="30">
         <v>2</v>
       </c>
-      <c r="O8" s="47"/>
-      <c r="P8" s="31"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="30"/>
       <c r="Q8" s="3" t="str">
-        <f t="shared" ref="Q8:Q9" si="0">B8</f>
+        <f t="shared" ref="Q8:Q9" si="2">B8</f>
         <v>cb</v>
       </c>
       <c r="R8" s="3">
         <f>SUM(D8,F8,H8,J8,L8,N8,P8)</f>
         <v>5</v>
       </c>
-      <c r="S8" s="42">
-        <f t="shared" ref="S8:S9" si="1">LOOKUP(Q8,$W$7:$X$12)*R8</f>
+      <c r="S8" s="41">
+        <f t="shared" si="1"/>
         <v>12500</v>
       </c>
       <c r="T8" s="3">
@@ -1480,13 +1517,13 @@
         <v>2500</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" ref="U8:U9" si="2">INDEX($X$7:$X$12,MATCH(Q8,$W$7:$W$12,0))</f>
+        <f t="shared" ref="U8:U9" si="3">INDEX($X$7:$X$12,MATCH(Q8,$W$7:$W$12,0))</f>
         <v>2500</v>
       </c>
-      <c r="W8" s="35" t="s">
+      <c r="W8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="X8" s="36">
+      <c r="X8" s="35">
         <v>2500</v>
       </c>
     </row>
@@ -1494,33 +1531,33 @@
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="29">
+      <c r="C9" s="42"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="28">
         <v>3</v>
       </c>
-      <c r="K9" s="45"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="32">
+      <c r="K9" s="42"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="31">
         <v>1</v>
       </c>
       <c r="Q9" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>cc</v>
       </c>
       <c r="R9" s="3">
         <f>SUM(D9,F9,H9,J9,L9,N9,P9)</f>
         <v>4</v>
       </c>
-      <c r="S9" s="42">
+      <c r="S9" s="41">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
@@ -1529,82 +1566,82 @@
         <v>3000</v>
       </c>
       <c r="U9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
-      <c r="W9" s="35" t="s">
+      <c r="W9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="X9" s="36">
+      <c r="X9" s="35">
         <v>3000</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
-      <c r="C10" s="18" t="str">
+      <c r="C10" s="19" t="str">
         <f ca="1">(TEXT(WeekStart+0+7,"mmm dd"))</f>
-        <v>May 07</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18" t="str">
+        <v>May 08</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19" t="str">
         <f ca="1">(TEXT(WeekStart+1+7,"mmm dd"))</f>
-        <v>May 08</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18" t="str">
+        <v>May 09</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19" t="str">
         <f ca="1">(TEXT(WeekStart+2+7,"mmm dd"))</f>
-        <v>May 09</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18" t="str">
+        <v>May 10</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19" t="str">
         <f ca="1">(TEXT(WeekStart+3+7,"mmm dd"))</f>
-        <v>May 10</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18" t="str">
+        <v>May 11</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19" t="str">
         <f ca="1">(TEXT(WeekStart+4+7,"mmm dd"))</f>
-        <v>May 11</v>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="20" t="str">
+        <v>May 12</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="21" t="str">
         <f ca="1">(TEXT(WeekStart+5+7,"mmm dd"))</f>
-        <v>May 12</v>
-      </c>
-      <c r="N10" s="19"/>
-      <c r="O10" s="21" t="str">
+        <v>May 13</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="22" t="str">
         <f ca="1">(TEXT(WeekStart+6+7,"mmm dd"))</f>
-        <v>May 13</v>
-      </c>
-      <c r="P10" s="19"/>
-      <c r="S10" s="42"/>
-      <c r="W10" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="X10" s="36">
+        <v>May 14</v>
+      </c>
+      <c r="P10" s="20"/>
+      <c r="S10" s="41"/>
+      <c r="W10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="X10" s="35">
         <v>3500</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="S11" s="42"/>
-      <c r="W11" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="X11" s="36">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="S11" s="41"/>
+      <c r="W11" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="X11" s="35">
         <v>1500</v>
       </c>
     </row>
@@ -1612,22 +1649,22 @@
       <c r="B12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="27">
+      <c r="C12" s="42"/>
+      <c r="D12" s="26">
         <v>2</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="30"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="29"/>
       <c r="Q12" s="3" t="str">
         <f>B12</f>
         <v>ca</v>
@@ -1636,7 +1673,7 @@
         <f>SUM(D12,F12,H12,J12,L12,N12,P12)</f>
         <v>2</v>
       </c>
-      <c r="S12" s="42">
+      <c r="S12" s="41">
         <f>LOOKUP(Q12,$W$7:$X$12)*R12</f>
         <v>4000</v>
       </c>
@@ -1648,10 +1685,10 @@
         <f>INDEX($X$7:$X$12,MATCH(Q12,$W$7:$W$12,0))</f>
         <v>2000</v>
       </c>
-      <c r="W12" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="X12" s="36">
+      <c r="W12" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="35">
         <v>1000</v>
       </c>
     </row>
@@ -1659,32 +1696,32 @@
       <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="28">
+      <c r="C13" s="42"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="27">
         <v>1</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="31"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="30"/>
       <c r="Q13" s="3" t="str">
-        <f t="shared" ref="Q13:Q14" si="3">B13</f>
+        <f t="shared" ref="Q13:Q14" si="4">B13</f>
         <v>cb</v>
       </c>
       <c r="R13" s="3">
         <f>SUM(D13,F13,H13,J13,L13,N13,P13)</f>
         <v>1</v>
       </c>
-      <c r="S13" s="42">
-        <f t="shared" ref="S13:S14" si="4">LOOKUP(Q13,$W$7:$X$12)*R13</f>
+      <c r="S13" s="41">
+        <f t="shared" ref="S13:S14" si="5">LOOKUP(Q13,$W$7:$X$12)*R13</f>
         <v>2500</v>
       </c>
       <c r="T13" s="3">
@@ -1692,40 +1729,40 @@
         <v>2500</v>
       </c>
       <c r="U13" s="3">
-        <f t="shared" ref="U13:U14" si="5">INDEX($X$7:$X$12,MATCH(Q13,$W$7:$W$12,0))</f>
+        <f t="shared" ref="U13:U14" si="6">INDEX($X$7:$X$12,MATCH(Q13,$W$7:$W$12,0))</f>
         <v>2500</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="29">
+        <v>21</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="28">
         <v>2</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="32"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="31"/>
       <c r="Q14" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>cd</v>
       </c>
       <c r="R14" s="3">
         <f>SUM(D14,F14,H14,J14,L14,N14,P14)</f>
         <v>2</v>
       </c>
-      <c r="S14" s="42">
-        <f t="shared" si="4"/>
+      <c r="S14" s="41">
+        <f t="shared" si="5"/>
         <v>7000</v>
       </c>
       <c r="T14" s="3">
@@ -1733,96 +1770,96 @@
         <v>3500</v>
       </c>
       <c r="U14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3500</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="15"/>
-      <c r="C15" s="18" t="str">
+      <c r="C15" s="19" t="str">
         <f ca="1">(TEXT(WeekStart+0+14,"mmm dd"))</f>
-        <v>May 14</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18" t="str">
+        <v>May 15</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19" t="str">
         <f ca="1">(TEXT(WeekStart+1+14,"mmm dd"))</f>
-        <v>May 15</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18" t="str">
+        <v>May 16</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19" t="str">
         <f ca="1">(TEXT(WeekStart+2+14,"mmm dd"))</f>
-        <v>May 16</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18" t="str">
+        <v>May 17</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19" t="str">
         <f ca="1">(TEXT(WeekStart+3+14,"mmm dd"))</f>
-        <v>May 17</v>
-      </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18" t="str">
+        <v>May 18</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19" t="str">
         <f ca="1">(TEXT(WeekStart+4+14,"mmm dd"))</f>
-        <v>May 18</v>
-      </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="20" t="str">
+        <v>May 19</v>
+      </c>
+      <c r="L15" s="19"/>
+      <c r="M15" s="21" t="str">
         <f ca="1">(TEXT(WeekStart+5+14,"mmm dd"))</f>
-        <v>May 19</v>
-      </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="21" t="str">
+        <v>May 20</v>
+      </c>
+      <c r="N15" s="20"/>
+      <c r="O15" s="22" t="str">
         <f ca="1">(TEXT(WeekStart+6+14,"mmm dd"))</f>
-        <v>May 20</v>
-      </c>
-      <c r="P15" s="19"/>
-      <c r="S15" s="42"/>
+        <v>May 21</v>
+      </c>
+      <c r="P15" s="20"/>
+      <c r="S15" s="41"/>
     </row>
     <row r="16" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="S16" s="42"/>
-      <c r="W16" s="39" t="s">
-        <v>33</v>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="S16" s="41"/>
+      <c r="W16" s="38" t="s">
+        <v>32</v>
       </c>
       <c r="X16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="27">
+      <c r="C17" s="42"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="26">
         <v>2</v>
       </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="30"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="29"/>
       <c r="Q17" s="3" t="str">
         <f>B17</f>
         <v>ca</v>
@@ -1831,7 +1868,7 @@
         <f>SUM(D17,F17,H17,J17,L17,N17,P17)</f>
         <v>2</v>
       </c>
-      <c r="S17" s="42">
+      <c r="S17" s="41">
         <f>LOOKUP(Q17,$W$7:$X$12)*R17</f>
         <v>4000</v>
       </c>
@@ -1843,94 +1880,96 @@
         <f>INDEX($X$7:$X$12,MATCH(Q17,$W$7:$W$12,0))</f>
         <v>2000</v>
       </c>
-      <c r="W17" s="40" t="s">
+      <c r="W17" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X17" s="41">
-        <v>7</v>
-      </c>
-      <c r="Y17" s="41">
-        <v>14000</v>
+      <c r="X17" s="40">
+        <v>9</v>
+      </c>
+      <c r="Y17" s="40">
+        <v>18000</v>
       </c>
     </row>
     <row r="18" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="31"/>
+        <v>21</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="27">
+        <v>2</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="30"/>
       <c r="Q18" s="3" t="str">
-        <f t="shared" ref="Q18:Q19" si="6">B18</f>
+        <f t="shared" ref="Q18:Q19" si="7">B18</f>
         <v>cd</v>
       </c>
       <c r="R18" s="3">
         <f>SUM(D18,F18,H18,J18,L18,N18,P18)</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="42">
-        <f t="shared" ref="S18:S19" si="7">LOOKUP(Q18,$W$7:$X$12)*R18</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="S18" s="41">
+        <f t="shared" ref="S18:S19" si="8">LOOKUP(Q18,$W$7:$X$12)*R18</f>
+        <v>7000</v>
       </c>
       <c r="T18" s="3">
         <f>LOOKUP(Q18,$W$7:$X$12)</f>
         <v>3500</v>
       </c>
       <c r="U18" s="3">
-        <f t="shared" ref="U18:U19" si="8">INDEX($X$7:$X$12,MATCH(Q18,$W$7:$W$12,0))</f>
+        <f t="shared" ref="U18:U19" si="9">INDEX($X$7:$X$12,MATCH(Q18,$W$7:$W$12,0))</f>
         <v>3500</v>
       </c>
-      <c r="W18" s="40" t="s">
+      <c r="W18" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="X18" s="41">
-        <v>7</v>
-      </c>
-      <c r="Y18" s="41">
-        <v>17500</v>
+      <c r="X18" s="40">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="40">
+        <v>25000</v>
       </c>
     </row>
     <row r="19" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="29">
+        <v>22</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="28">
         <v>1</v>
       </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="32"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="31"/>
       <c r="Q19" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cf</v>
       </c>
       <c r="R19" s="3">
         <f>SUM(D19,F19,H19,J19,L19,N19,P19)</f>
         <v>1</v>
       </c>
-      <c r="S19" s="42">
-        <f t="shared" si="7"/>
+      <c r="S19" s="41">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="T19" s="3">
@@ -1938,123 +1977,125 @@
         <v>1000</v>
       </c>
       <c r="U19" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
-      <c r="W19" s="40" t="s">
+      <c r="W19" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="X19" s="41">
+      <c r="X19" s="40">
         <v>4</v>
       </c>
-      <c r="Y19" s="41">
+      <c r="Y19" s="40">
         <v>12000</v>
       </c>
     </row>
     <row r="20" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="15"/>
-      <c r="C20" s="18" t="str">
+      <c r="C20" s="19" t="str">
         <f ca="1">(TEXT(WeekStart+0+21,"mmm dd"))</f>
-        <v>May 21</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18" t="str">
+        <v>May 22</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19" t="str">
         <f ca="1">(TEXT(WeekStart+1+21,"mmm dd"))</f>
-        <v>May 22</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18" t="str">
+        <v>May 23</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19" t="str">
         <f ca="1">(TEXT(WeekStart+2+21,"mmm dd"))</f>
-        <v>May 23</v>
-      </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18" t="str">
+        <v>May 24</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19" t="str">
         <f ca="1">(TEXT(WeekStart+3+21,"mmm dd"))</f>
-        <v>May 24</v>
-      </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18" t="str">
+        <v>May 25</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19" t="str">
         <f ca="1">(TEXT(WeekStart+4+21,"mmm dd"))</f>
-        <v>May 25</v>
-      </c>
-      <c r="L20" s="18"/>
-      <c r="M20" s="20" t="str">
+        <v>May 26</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="21" t="str">
         <f ca="1">(TEXT(WeekStart+5+21,"mmm dd"))</f>
-        <v>May 26</v>
-      </c>
-      <c r="N20" s="19"/>
-      <c r="O20" s="21" t="str">
+        <v>May 27</v>
+      </c>
+      <c r="N20" s="20"/>
+      <c r="O20" s="22" t="str">
         <f ca="1">(TEXT(WeekStart+6+21,"mmm dd"))</f>
-        <v>May 27</v>
-      </c>
-      <c r="P20" s="19"/>
-      <c r="S20" s="42"/>
-      <c r="W20" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="X20" s="41">
-        <v>2</v>
-      </c>
-      <c r="Y20" s="41">
-        <v>7000</v>
+        <v>May 28</v>
+      </c>
+      <c r="P20" s="20"/>
+      <c r="S20" s="41"/>
+      <c r="W20" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="X20" s="40">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="40">
+        <v>14000</v>
       </c>
     </row>
     <row r="21" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="S21" s="42"/>
-      <c r="W21" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="X21" s="41">
-        <v>3</v>
-      </c>
-      <c r="Y21" s="41">
-        <v>4500</v>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="S21" s="41"/>
+      <c r="W21" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="X21" s="40">
+        <v>6</v>
+      </c>
+      <c r="Y21" s="40">
+        <v>9000</v>
       </c>
     </row>
     <row r="22" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="30"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="26">
+        <v>1</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="29"/>
       <c r="Q22" s="3" t="str">
         <f>B22</f>
         <v>ca</v>
       </c>
       <c r="R22" s="3">
         <f>SUM(D22,F22,H22,J22,L22,N22,P22)</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="42">
+        <v>1</v>
+      </c>
+      <c r="S22" s="41">
         <f>LOOKUP(Q22,$W$7:$X$12)*R22</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="T22" s="3">
         <f>LOOKUP(Q22,$W$7:$X$12)</f>
@@ -2064,46 +2105,46 @@
         <f>INDEX($X$7:$X$12,MATCH(Q22,$W$7:$W$12,0))</f>
         <v>2000</v>
       </c>
-      <c r="W22" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="X22" s="41">
+      <c r="W22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="X22" s="40">
         <v>1</v>
       </c>
-      <c r="Y22" s="41">
+      <c r="Y22" s="40">
         <v>1000</v>
       </c>
     </row>
     <row r="23" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="28">
+        <v>30</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="27">
         <v>2</v>
       </c>
-      <c r="I23" s="45"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="31"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="30"/>
       <c r="Q23" s="3" t="str">
-        <f t="shared" ref="Q23:Q24" si="9">B23</f>
+        <f t="shared" ref="Q23:Q24" si="10">B23</f>
         <v>cb</v>
       </c>
       <c r="R23" s="3">
         <f>SUM(D23,F23,H23,J23,L23,N23,P23)</f>
         <v>2</v>
       </c>
-      <c r="S23" s="42">
-        <f t="shared" ref="S23:S24" si="10">LOOKUP(Q23,$W$7:$X$12)*R23</f>
+      <c r="S23" s="41">
+        <f t="shared" ref="S23:S24" si="11">LOOKUP(Q23,$W$7:$X$12)*R23</f>
         <v>5000</v>
       </c>
       <c r="T23" s="3">
@@ -2111,45 +2152,45 @@
         <v>2500</v>
       </c>
       <c r="U23" s="3">
-        <f t="shared" ref="U23:U24" si="11">INDEX($X$7:$X$12,MATCH(Q23,$W$7:$W$12,0))</f>
+        <f t="shared" ref="U23:U24" si="12">INDEX($X$7:$X$12,MATCH(Q23,$W$7:$W$12,0))</f>
         <v>2500</v>
       </c>
-      <c r="W23" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
+      <c r="W23" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
     </row>
     <row r="24" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="29">
+        <v>24</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="28">
         <v>3</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="32"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="31"/>
       <c r="Q24" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>ce</v>
       </c>
       <c r="R24" s="3">
         <f>SUM(D24,F24,H24,J24,L24,N24,P24)</f>
         <v>3</v>
       </c>
-      <c r="S24" s="42">
-        <f t="shared" si="10"/>
+      <c r="S24" s="41">
+        <f t="shared" si="11"/>
         <v>4500</v>
       </c>
       <c r="T24" s="3">
@@ -2157,20 +2198,112 @@
         <v>1500</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1500</v>
       </c>
-      <c r="W24" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="X24" s="41">
-        <v>24</v>
-      </c>
-      <c r="Y24" s="41">
-        <v>56000</v>
-      </c>
+      <c r="W24" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="X24" s="40">
+        <v>34</v>
+      </c>
+      <c r="Y24" s="40">
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
+      <c r="C25" s="19" t="str">
+        <f ca="1">(TEXT(WeekStart+0+28,"mmm dd"))</f>
+        <v>May 29</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19" t="str">
+        <f ca="1">(TEXT(WeekStart+1+28,"mmm dd"))</f>
+        <v>May 30</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19" t="str">
+        <f ca="1">(TEXT(WeekStart+2+28,"mmm dd"))</f>
+        <v>May 31</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19" t="str">
+        <f ca="1">(TEXT(WeekStart+3+28,"mmm dd"))</f>
+        <v>Jun 01</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19" t="str">
+        <f ca="1">(TEXT(WeekStart+4+28,"mmm dd"))</f>
+        <v>Jun 02</v>
+      </c>
+      <c r="L25" s="19"/>
+      <c r="M25" s="21" t="str">
+        <f ca="1">(TEXT(WeekStart+5+28,"mmm dd"))</f>
+        <v>Jun 03</v>
+      </c>
+      <c r="N25" s="20"/>
+      <c r="O25" s="22" t="str">
+        <f ca="1">(TEXT(WeekStart+6+28,"mmm dd"))</f>
+        <v>Jun 04</v>
+      </c>
+      <c r="P25" s="20"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+    </row>
+    <row r="26" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
     </row>
     <row r="27" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="26">
+        <v>1</v>
+      </c>
+      <c r="I27" s="42"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="3" t="str">
+        <f>B27</f>
+        <v>ca</v>
+      </c>
+      <c r="R27" s="3">
+        <f>SUM(D27,F27,H27,J27,L27,N27,P27)</f>
+        <v>1</v>
+      </c>
+      <c r="S27" s="41">
+        <f>LOOKUP(Q27,$W$7:$X$12)*R27</f>
+        <v>2000</v>
+      </c>
       <c r="T27"/>
       <c r="U27"/>
       <c r="V27"/>
@@ -2189,6 +2322,37 @@
       <c r="AI27"/>
     </row>
     <row r="28" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="27">
+        <v>2</v>
+      </c>
+      <c r="I28" s="42"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="3" t="str">
+        <f t="shared" ref="Q28:Q29" si="13">B28</f>
+        <v>cb</v>
+      </c>
+      <c r="R28" s="3">
+        <f>SUM(D28,F28,H28,J28,L28,N28,P28)</f>
+        <v>2</v>
+      </c>
+      <c r="S28" s="41">
+        <f t="shared" ref="S28:S29" si="14">LOOKUP(Q28,$W$7:$X$12)*R28</f>
+        <v>5000</v>
+      </c>
       <c r="T28"/>
       <c r="U28"/>
       <c r="V28"/>
@@ -2207,6 +2371,37 @@
       <c r="AI28"/>
     </row>
     <row r="29" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="42"/>
+      <c r="D29" s="28">
+        <v>3</v>
+      </c>
+      <c r="E29" s="42"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>ce</v>
+      </c>
+      <c r="R29" s="3">
+        <f>SUM(D29,F29,H29,J29,L29,N29,P29)</f>
+        <v>3</v>
+      </c>
+      <c r="S29" s="41">
+        <f t="shared" si="14"/>
+        <v>4500</v>
+      </c>
       <c r="T29"/>
       <c r="U29"/>
       <c r="V29"/>
@@ -2539,10 +2734,17 @@
       <c r="Q59"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="52">
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="E1:F1"/>
@@ -2550,6 +2752,7 @@
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
@@ -2586,16 +2789,13 @@
     <mergeCell ref="I4:J4"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
-  <dataValidations count="9">
+  <dataValidations xWindow="820" yWindow="305" count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Present" sqref="Q3:R4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Absent - excused" sqref="T3:U5 S3:S4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Student Name in this cell." sqref="I2:J2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Week Date in next cell G5." sqref="C1:D1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Week Date (i-e Monday Date) in this cell. Dates for Grid below will be auto-calculated." sqref="O3:P3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Homework Log" prompt="Help your students get more organized with this ready-to-print homework log to track their assignments. _x000a__x000a_" sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the date for the start of the week in this cell." sqref="K2:L2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Homework Date header, these dates are calculated on basis of your input in cell D4." sqref="O15 O5 O10 C5 E5 G5 I5 K5 M5 C10 E10 G10 I10 K10 M10 C15 E15 G15 I15 K15 M15 C20 E20 G20 I20 K20 M20 O20"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Week Date (i.e., Monday Date) in this cell. Dates in Grid below will be auto-calculated." sqref="I1 K1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Homework Date header, these dates are calculated on basis of your input in cell D4." sqref="O15 O5 O10 C5 E5 G5 I5 K5 M5 C10 E10 G10 I10 K10 M10 C15 E15 G15 I15 K15 M15 C20 E20 G20 I20 K20 M20 O20 C25 E25 G25 I25 K25 M25 O25"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/cases-log.xlsx
+++ b/cases-log.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="monthlystart">'work log-monthly'!$H$2</definedName>
-    <definedName name="rate_ca">'work log-monthly'!$X$7</definedName>
-    <definedName name="rate_cb">'work log-monthly'!$X$8</definedName>
-    <definedName name="rate_cc">'work log-monthly'!$X$9</definedName>
-    <definedName name="rate_cd">'work log-monthly'!$X$10</definedName>
-    <definedName name="rate_ce">'work log-monthly'!$X$11</definedName>
-    <definedName name="rate_cf">'work log-monthly'!$X$11</definedName>
-    <definedName name="rate_cg">'work log-monthly'!$X$12</definedName>
-    <definedName name="rate_table">'work log-monthly'!$W$6:$X$12</definedName>
+    <definedName name="rate_ca">'work log-monthly'!$Y$6</definedName>
+    <definedName name="rate_cb">'work log-monthly'!$Y$7</definedName>
+    <definedName name="rate_cc">'work log-monthly'!$Y$8</definedName>
+    <definedName name="rate_cd">'work log-monthly'!$Y$9</definedName>
+    <definedName name="rate_ce">'work log-monthly'!$Y$10</definedName>
+    <definedName name="rate_cf">'work log-monthly'!$Y$10</definedName>
+    <definedName name="rate_cg">'work log-monthly'!$Y$11</definedName>
+    <definedName name="rate_table">'work log-monthly'!$X$5:$Y$11</definedName>
     <definedName name="today">'work log-monthly'!$J$2</definedName>
     <definedName name="WeekStart" localSheetId="0">'work log-monthly'!$K$2</definedName>
   </definedNames>
@@ -62,11 +62,11 @@
   </si>
   <si>
     <t>SAT</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>SUN</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ca</t>
@@ -79,89 +79,85 @@
   </si>
   <si>
     <t>ca</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>cb</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>cc</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>cb</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Monthly Start</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Month</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Monthly 
 week start</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>rate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>cd</t>
   </si>
   <si>
     <t>cd</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>cf</t>
   </si>
   <si>
     <t>cd</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>cf</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ce</t>
   </si>
   <si>
     <t>ce</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Case</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>wh_subt</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>sub1_rev</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>lookup_rate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>match_rate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>cb</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monthly Cases</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>列標籤</t>
@@ -180,25 +176,30 @@
   </si>
   <si>
     <t>13:00~15:00</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>14:20~15:20</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Today</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monthly Plan</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mmm\ dd"/>
+    <numFmt numFmtId="181" formatCode="#,##0_);\(#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,31 +252,8 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="9"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="7"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -296,6 +274,13 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1" tint="0.14999847407452621"/>
       <name val="Trebuchet MS"/>
@@ -310,15 +295,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <i/>
-      <sz val="36"/>
+      <sz val="26"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
@@ -335,8 +314,22 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,19 +356,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="1" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,7 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.749992370372631"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,13 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,8 +408,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -565,11 +564,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -604,11 +614,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -617,32 +627,11 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -653,31 +642,16 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -685,35 +659,126 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="181" formatCode="#,##0_);\(#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1" tint="0.14999847407452621"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1" tint="0.14999847407452621"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -743,7 +808,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="45076.601096759259" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="24">
   <cacheSource type="worksheet">
-    <worksheetSource ref="Q5:S29" sheet="work log-monthly"/>
+    <worksheetSource ref="R4:T24" sheet="work log-monthly"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="Case" numFmtId="0">
@@ -899,7 +964,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="W16:Y24" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="X15:Z23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
       <items count="8">
@@ -958,8 +1023,33 @@
   </colItems>
   <dataFields count="2">
     <dataField name="加總 - wh_subt" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="加總 - sub1_rev" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="加總 - sub1_rev" fld="2" baseField="0" baseItem="0" numFmtId="181"/>
   </dataFields>
+  <formats count="2">
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="6">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1175,10 +1265,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AI59"/>
+  <dimension ref="B1:AJ54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1187,78 +1277,80 @@
     <col min="2" max="2" width="10" style="5" customWidth="1"/>
     <col min="3" max="12" width="10" style="4" customWidth="1"/>
     <col min="13" max="16" width="10" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="15.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="7.5" style="3" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="6.125" style="3" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="2.875" style="3" customWidth="1"/>
-    <col min="23" max="23" width="9.375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="15.5" style="3" customWidth="1"/>
-    <col min="25" max="25" width="16.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="8.5" style="3" customWidth="1"/>
-    <col min="28" max="28" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.5" style="3" customWidth="1"/>
-    <col min="36" max="16384" width="9.125" style="3"/>
+    <col min="17" max="17" width="2.25" style="3" customWidth="1"/>
+    <col min="18" max="18" width="9.375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="7.5" style="3" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="6.125" style="3" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="2.875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="9.375" style="3" customWidth="1"/>
+    <col min="25" max="25" width="15.5" style="3" customWidth="1"/>
+    <col min="26" max="26" width="16.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="8.5" style="3" customWidth="1"/>
+    <col min="29" max="29" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.5" style="3" customWidth="1"/>
+    <col min="37" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:27" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="2:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="2:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="24">
         <f ca="1">MONTH(monthlystart)</f>
         <v>5</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24">
+      <c r="F2" s="24"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18">
         <f ca="1">EOMONTH(today,-1)+1</f>
         <v>45047</v>
       </c>
       <c r="I2" s="16"/>
-      <c r="J2" s="24">
+      <c r="J2" s="18">
         <f t="shared" ref="J2" ca="1" si="0">TODAY()</f>
         <v>45076</v>
       </c>
-      <c r="K2" s="46">
+      <c r="K2" s="30">
         <f ca="1">monthlystart-WEEKDAY(TODAY(),2)+2</f>
         <v>45047</v>
       </c>
-      <c r="L2" s="46"/>
+      <c r="L2" s="30"/>
       <c r="P2" s="16"/>
-    </row>
-    <row r="3" spans="2:25" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="2:27" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1272,7 +1364,7 @@
       <c r="L3" s="8"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="Q3" s="1"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -1280,1031 +1372,1026 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
-    </row>
-    <row r="4" spans="2:25" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="4" spans="2:27" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="48"/>
+      <c r="G4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="48"/>
+      <c r="I4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17" t="s">
+      <c r="J4" s="48"/>
+      <c r="K4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18" t="s">
+      <c r="L4" s="48"/>
+      <c r="M4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18" t="s">
+      <c r="N4" s="49"/>
+      <c r="O4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
       <c r="U4" s="14"/>
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
-    </row>
-    <row r="5" spans="2:25" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y4" s="14"/>
+    </row>
+    <row r="5" spans="2:27" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="15"/>
-      <c r="C5" s="19" t="str">
+      <c r="C5" s="31" t="str">
         <f ca="1">(TEXT(WeekStart+0,"mmm dd"))</f>
         <v>May 01</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19" t="str">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31" t="str">
         <f ca="1">(TEXT(WeekStart+1,"mmm dd"))</f>
         <v>May 02</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19" t="str">
+      <c r="F5" s="31"/>
+      <c r="G5" s="31" t="str">
         <f ca="1">(TEXT(WeekStart+2,"mmm dd"))</f>
         <v>May 03</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19" t="str">
+      <c r="H5" s="31"/>
+      <c r="I5" s="31" t="str">
         <f ca="1">(TEXT(WeekStart+3,"mmm dd"))</f>
         <v>May 04</v>
       </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19" t="str">
+      <c r="J5" s="31"/>
+      <c r="K5" s="31" t="str">
         <f ca="1">(TEXT(WeekStart+4,"mmm dd"))</f>
         <v>May 05</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="21" t="str">
+      <c r="L5" s="31"/>
+      <c r="M5" s="33" t="str">
         <f ca="1">(TEXT(WeekStart+5,"mmm dd"))</f>
         <v>May 06</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="22" t="str">
+      <c r="N5" s="34"/>
+      <c r="O5" s="35" t="str">
         <f ca="1">(TEXT(WeekStart+6,"mmm dd"))</f>
         <v>May 07</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="47" t="s">
+      <c r="P5" s="32"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="R5" s="48" t="s">
+      <c r="S5" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="S5" s="48" t="s">
+      <c r="T5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-    </row>
-    <row r="6" spans="2:25" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="32">
-        <f>SUM(D7:D9)</f>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="2:27" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="45">
+        <v>2</v>
+      </c>
+      <c r="M6" s="44"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="41">
         <v>1</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="32">
-        <f>SUM(F7:F9)</f>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="54" t="str">
+        <f>B6</f>
+        <v>ca</v>
+      </c>
+      <c r="S6" s="51">
+        <f>SUM(D6,F6,H6,J6,L6,N6,P6)</f>
+        <v>3</v>
+      </c>
+      <c r="T6" s="52">
+        <f t="shared" ref="T6:T8" si="1">LOOKUP(R6,$X$6:$Y$11)*S6</f>
+        <v>6000</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="57">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="46">
+        <v>1</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="46">
         <v>2</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="32">
-        <f>SUM(H7:H9)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="32">
-        <f>SUM(J7:J9)</f>
-        <v>3</v>
-      </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="32">
-        <f>SUM(L7:L9)</f>
+      <c r="G7" s="44"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="20">
         <v>2</v>
       </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="32">
-        <f>SUM(N7:N9)</f>
-        <v>2</v>
-      </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="32">
-        <f>SUM(P7:P9)</f>
-        <v>2</v>
-      </c>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="26">
-        <v>2</v>
-      </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="29">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="3" t="str">
-        <f>B7</f>
-        <v>ca</v>
-      </c>
-      <c r="R7" s="3">
+      <c r="O7" s="39"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="54" t="str">
+        <f t="shared" ref="R7:R8" si="2">B7</f>
+        <v>cb</v>
+      </c>
+      <c r="S7" s="51">
         <f>SUM(D7,F7,H7,J7,L7,N7,P7)</f>
-        <v>3</v>
-      </c>
-      <c r="S7" s="41">
-        <f t="shared" ref="S7:S9" si="1">LOOKUP(Q7,$W$7:$X$12)*R7</f>
-        <v>6000</v>
-      </c>
-      <c r="T7" s="3">
-        <f>LOOKUP(Q7,$W$7:$X$12)</f>
-        <v>2000</v>
-      </c>
-      <c r="U7" s="3">
-        <f>INDEX($X$7:$X$12,MATCH(Q7,$W$7:$W$12,0))</f>
-        <v>2000</v>
-      </c>
-      <c r="W7" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="X7" s="35">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="27">
-        <v>1</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="27">
-        <v>2</v>
-      </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="30">
-        <v>2</v>
-      </c>
-      <c r="O8" s="44"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="3" t="str">
-        <f t="shared" ref="Q8:Q9" si="2">B8</f>
-        <v>cb</v>
-      </c>
-      <c r="R8" s="3">
-        <f>SUM(D8,F8,H8,J8,L8,N8,P8)</f>
         <v>5</v>
       </c>
-      <c r="S8" s="41">
+      <c r="T7" s="52">
         <f t="shared" si="1"/>
         <v>12500</v>
       </c>
-      <c r="T8" s="3">
-        <f>LOOKUP(Q8,$W$7:$X$12)</f>
+      <c r="U7" s="3">
+        <f>LOOKUP(R6,$X$6:$Y$11)</f>
+        <v>2000</v>
+      </c>
+      <c r="V7" s="3">
+        <f>INDEX($Y$6:$Y$11,MATCH(R6,$X$6:$X$11,0))</f>
+        <v>2000</v>
+      </c>
+      <c r="X7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y7" s="57">
         <v>2500</v>
       </c>
-      <c r="U8" s="3">
-        <f t="shared" ref="U8:U9" si="3">INDEX($X$7:$X$12,MATCH(Q8,$W$7:$W$12,0))</f>
-        <v>2500</v>
-      </c>
-      <c r="W8" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="X8" s="35">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="28">
+      <c r="C8" s="44"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="47">
         <v>3</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="31">
+      <c r="K8" s="44"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="43">
         <v>1</v>
       </c>
-      <c r="Q9" s="3" t="str">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="54" t="str">
         <f t="shared" si="2"/>
         <v>cc</v>
       </c>
-      <c r="R9" s="3">
-        <f>SUM(D9,F9,H9,J9,L9,N9,P9)</f>
+      <c r="S8" s="51">
+        <f>SUM(D8,F8,H8,J8,L8,N8,P8)</f>
         <v>4</v>
       </c>
-      <c r="S9" s="41">
+      <c r="T8" s="52">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="T9" s="3">
-        <f>LOOKUP(Q9,$W$7:$X$12)</f>
+      <c r="U8" s="3">
+        <f>LOOKUP(R7,$X$6:$Y$11)</f>
+        <v>2500</v>
+      </c>
+      <c r="V8" s="3">
+        <f t="shared" ref="V8:V9" si="3">INDEX($Y$6:$Y$11,MATCH(R7,$X$6:$X$11,0))</f>
+        <v>2500</v>
+      </c>
+      <c r="X8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" s="57">
         <v>3000</v>
       </c>
+    </row>
+    <row r="9" spans="2:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="15"/>
+      <c r="C9" s="31" t="str">
+        <f ca="1">(TEXT(WeekStart+0+7,"mmm dd"))</f>
+        <v>May 08</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31" t="str">
+        <f ca="1">(TEXT(WeekStart+1+7,"mmm dd"))</f>
+        <v>May 09</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31" t="str">
+        <f ca="1">(TEXT(WeekStart+2+7,"mmm dd"))</f>
+        <v>May 10</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31" t="str">
+        <f ca="1">(TEXT(WeekStart+3+7,"mmm dd"))</f>
+        <v>May 11</v>
+      </c>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31" t="str">
+        <f ca="1">(TEXT(WeekStart+4+7,"mmm dd"))</f>
+        <v>May 12</v>
+      </c>
+      <c r="L9" s="31"/>
+      <c r="M9" s="33" t="str">
+        <f ca="1">(TEXT(WeekStart+5+7,"mmm dd"))</f>
+        <v>May 13</v>
+      </c>
+      <c r="N9" s="34"/>
+      <c r="O9" s="35" t="str">
+        <f ca="1">(TEXT(WeekStart+6+7,"mmm dd"))</f>
+        <v>May 14</v>
+      </c>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="52"/>
       <c r="U9" s="3">
+        <f>LOOKUP(R8,$X$6:$Y$11)</f>
+        <v>3000</v>
+      </c>
+      <c r="V9" s="3">
         <f t="shared" si="3"/>
         <v>3000</v>
       </c>
-      <c r="W9" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="X9" s="35">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
-      <c r="C10" s="19" t="str">
-        <f ca="1">(TEXT(WeekStart+0+7,"mmm dd"))</f>
-        <v>May 08</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19" t="str">
-        <f ca="1">(TEXT(WeekStart+1+7,"mmm dd"))</f>
-        <v>May 09</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19" t="str">
-        <f ca="1">(TEXT(WeekStart+2+7,"mmm dd"))</f>
-        <v>May 10</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19" t="str">
-        <f ca="1">(TEXT(WeekStart+3+7,"mmm dd"))</f>
-        <v>May 11</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19" t="str">
-        <f ca="1">(TEXT(WeekStart+4+7,"mmm dd"))</f>
-        <v>May 12</v>
-      </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="21" t="str">
-        <f ca="1">(TEXT(WeekStart+5+7,"mmm dd"))</f>
-        <v>May 13</v>
-      </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="22" t="str">
-        <f ca="1">(TEXT(WeekStart+6+7,"mmm dd"))</f>
-        <v>May 14</v>
-      </c>
-      <c r="P10" s="20"/>
-      <c r="S10" s="41"/>
-      <c r="W10" s="34" t="s">
+      <c r="X9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="X10" s="35">
+      <c r="Y9" s="57">
         <v>3500</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="S11" s="41"/>
-      <c r="W11" s="34" t="s">
+    <row r="10" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45">
+        <v>2</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="54" t="str">
+        <f>B10</f>
+        <v>ca</v>
+      </c>
+      <c r="S10" s="51">
+        <f>SUM(D10,F10,H10,J10,L10,N10,P10)</f>
+        <v>2</v>
+      </c>
+      <c r="T10" s="52">
+        <f>LOOKUP(R10,$X$6:$Y$11)*S10</f>
+        <v>4000</v>
+      </c>
+      <c r="X10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="X11" s="35">
+      <c r="Y10" s="57">
         <v>1500</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="26">
+    <row r="11" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="46">
+        <v>1</v>
+      </c>
+      <c r="G11" s="44"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="54" t="str">
+        <f t="shared" ref="R11:R12" si="4">B11</f>
+        <v>cb</v>
+      </c>
+      <c r="S11" s="51">
+        <f>SUM(D11,F11,H11,J11,L11,N11,P11)</f>
+        <v>1</v>
+      </c>
+      <c r="T11" s="52">
+        <f t="shared" ref="T11:T12" si="5">LOOKUP(R11,$X$6:$Y$11)*S11</f>
+        <v>2500</v>
+      </c>
+      <c r="X11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="57">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="47">
         <v>2</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="3" t="str">
-        <f>B12</f>
-        <v>ca</v>
-      </c>
-      <c r="R12" s="3">
+      <c r="I12" s="44"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="54" t="str">
+        <f t="shared" si="4"/>
+        <v>cd</v>
+      </c>
+      <c r="S12" s="51">
         <f>SUM(D12,F12,H12,J12,L12,N12,P12)</f>
         <v>2</v>
       </c>
-      <c r="S12" s="41">
-        <f>LOOKUP(Q12,$W$7:$X$12)*R12</f>
-        <v>4000</v>
-      </c>
-      <c r="T12" s="3">
-        <f>LOOKUP(Q12,$W$7:$X$12)</f>
+      <c r="T12" s="52">
+        <f t="shared" si="5"/>
+        <v>7000</v>
+      </c>
+      <c r="U12" s="3">
+        <f>LOOKUP(R10,$X$6:$Y$11)</f>
         <v>2000</v>
       </c>
-      <c r="U12" s="3">
-        <f>INDEX($X$7:$X$12,MATCH(Q12,$W$7:$W$12,0))</f>
+      <c r="V12" s="3">
+        <f>INDEX($Y$6:$Y$11,MATCH(R10,$X$6:$X$11,0))</f>
         <v>2000</v>
       </c>
-      <c r="W12" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="35">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="27">
-        <v>1</v>
-      </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="3" t="str">
-        <f t="shared" ref="Q13:Q14" si="4">B13</f>
-        <v>cb</v>
-      </c>
-      <c r="R13" s="3">
-        <f>SUM(D13,F13,H13,J13,L13,N13,P13)</f>
-        <v>1</v>
-      </c>
-      <c r="S13" s="41">
-        <f t="shared" ref="S13:S14" si="5">LOOKUP(Q13,$W$7:$X$12)*R13</f>
+    </row>
+    <row r="13" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
+      <c r="C13" s="31" t="str">
+        <f ca="1">(TEXT(WeekStart+0+14,"mmm dd"))</f>
+        <v>May 15</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31" t="str">
+        <f ca="1">(TEXT(WeekStart+1+14,"mmm dd"))</f>
+        <v>May 16</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31" t="str">
+        <f ca="1">(TEXT(WeekStart+2+14,"mmm dd"))</f>
+        <v>May 17</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31" t="str">
+        <f ca="1">(TEXT(WeekStart+3+14,"mmm dd"))</f>
+        <v>May 18</v>
+      </c>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31" t="str">
+        <f ca="1">(TEXT(WeekStart+4+14,"mmm dd"))</f>
+        <v>May 19</v>
+      </c>
+      <c r="L13" s="31"/>
+      <c r="M13" s="33" t="str">
+        <f ca="1">(TEXT(WeekStart+5+14,"mmm dd"))</f>
+        <v>May 20</v>
+      </c>
+      <c r="N13" s="34"/>
+      <c r="O13" s="35" t="str">
+        <f ca="1">(TEXT(WeekStart+6+14,"mmm dd"))</f>
+        <v>May 21</v>
+      </c>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="3">
+        <f>LOOKUP(R11,$X$6:$Y$11)</f>
         <v>2500</v>
       </c>
-      <c r="T13" s="3">
-        <f>LOOKUP(Q13,$W$7:$X$12)</f>
+      <c r="V13" s="3">
+        <f t="shared" ref="V13:V14" si="6">INDEX($Y$6:$Y$11,MATCH(R11,$X$6:$X$11,0))</f>
         <v>2500</v>
       </c>
-      <c r="U13" s="3">
-        <f t="shared" ref="U13:U14" si="6">INDEX($X$7:$X$12,MATCH(Q13,$W$7:$W$12,0))</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="14" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="28">
+    </row>
+    <row r="14" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45">
         <v>2</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>cd</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="54" t="str">
+        <f>B14</f>
+        <v>ca</v>
+      </c>
+      <c r="S14" s="51">
         <f>SUM(D14,F14,H14,J14,L14,N14,P14)</f>
         <v>2</v>
       </c>
-      <c r="S14" s="41">
-        <f t="shared" si="5"/>
-        <v>7000</v>
-      </c>
-      <c r="T14" s="3">
-        <f>LOOKUP(Q14,$W$7:$X$12)</f>
+      <c r="T14" s="52">
+        <f>LOOKUP(R14,$X$6:$Y$11)*S14</f>
+        <v>4000</v>
+      </c>
+      <c r="U14" s="3">
+        <f>LOOKUP(R12,$X$6:$Y$11)</f>
         <v>3500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <f t="shared" si="6"/>
         <v>3500</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15"/>
-      <c r="C15" s="19" t="str">
-        <f ca="1">(TEXT(WeekStart+0+14,"mmm dd"))</f>
-        <v>May 15</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19" t="str">
-        <f ca="1">(TEXT(WeekStart+1+14,"mmm dd"))</f>
-        <v>May 16</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19" t="str">
-        <f ca="1">(TEXT(WeekStart+2+14,"mmm dd"))</f>
-        <v>May 17</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19" t="str">
-        <f ca="1">(TEXT(WeekStart+3+14,"mmm dd"))</f>
-        <v>May 18</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19" t="str">
-        <f ca="1">(TEXT(WeekStart+4+14,"mmm dd"))</f>
-        <v>May 19</v>
-      </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="21" t="str">
-        <f ca="1">(TEXT(WeekStart+5+14,"mmm dd"))</f>
-        <v>May 20</v>
-      </c>
+    <row r="15" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="46">
+        <v>2</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="29"/>
       <c r="N15" s="20"/>
-      <c r="O15" s="22" t="str">
-        <f ca="1">(TEXT(WeekStart+6+14,"mmm dd"))</f>
-        <v>May 21</v>
-      </c>
-      <c r="P15" s="20"/>
-      <c r="S15" s="41"/>
-    </row>
-    <row r="16" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="S16" s="41"/>
-      <c r="W16" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="X16" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y16" t="s">
+      <c r="O15" s="39"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="54" t="str">
+        <f t="shared" ref="R15:R16" si="7">B15</f>
+        <v>cd</v>
+      </c>
+      <c r="S15" s="51">
+        <f>SUM(D15,F15,H15,J15,L15,N15,P15)</f>
+        <v>2</v>
+      </c>
+      <c r="T15" s="52">
+        <f t="shared" ref="T15:T16" si="8">LOOKUP(R15,$X$6:$Y$11)*S15</f>
+        <v>7000</v>
+      </c>
+      <c r="X15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="26">
-        <v>2</v>
-      </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="3" t="str">
-        <f>B17</f>
-        <v>ca</v>
-      </c>
-      <c r="R17" s="3">
-        <f>SUM(D17,F17,H17,J17,L17,N17,P17)</f>
-        <v>2</v>
-      </c>
-      <c r="S17" s="41">
-        <f>LOOKUP(Q17,$W$7:$X$12)*R17</f>
-        <v>4000</v>
-      </c>
-      <c r="T17" s="3">
-        <f>LOOKUP(Q17,$W$7:$X$12)</f>
-        <v>2000</v>
-      </c>
-      <c r="U17" s="3">
-        <f>INDEX($X$7:$X$12,MATCH(Q17,$W$7:$W$12,0))</f>
-        <v>2000</v>
-      </c>
-      <c r="W17" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="X17" s="40">
-        <v>9</v>
-      </c>
-      <c r="Y17" s="40">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="27">
-        <v>2</v>
-      </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="3" t="str">
-        <f t="shared" ref="Q18:Q19" si="7">B18</f>
-        <v>cd</v>
-      </c>
-      <c r="R18" s="3">
-        <f>SUM(D18,F18,H18,J18,L18,N18,P18)</f>
-        <v>2</v>
-      </c>
-      <c r="S18" s="41">
-        <f t="shared" ref="S18:S19" si="8">LOOKUP(Q18,$W$7:$X$12)*R18</f>
-        <v>7000</v>
-      </c>
-      <c r="T18" s="3">
-        <f>LOOKUP(Q18,$W$7:$X$12)</f>
-        <v>3500</v>
-      </c>
-      <c r="U18" s="3">
-        <f t="shared" ref="U18:U19" si="9">INDEX($X$7:$X$12,MATCH(Q18,$W$7:$W$12,0))</f>
-        <v>3500</v>
-      </c>
-      <c r="W18" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="X18" s="40">
-        <v>10</v>
-      </c>
-      <c r="Y18" s="40">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
+      <c r="Z15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="28">
+      <c r="C16" s="44"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="47">
         <v>1</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="3" t="str">
+      <c r="G16" s="44"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="54" t="str">
         <f t="shared" si="7"/>
         <v>cf</v>
       </c>
-      <c r="R19" s="3">
-        <f>SUM(D19,F19,H19,J19,L19,N19,P19)</f>
+      <c r="S16" s="51">
+        <f>SUM(D16,F16,H16,J16,L16,N16,P16)</f>
         <v>1</v>
       </c>
-      <c r="S19" s="41">
+      <c r="T16" s="52">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="T19" s="3">
-        <f>LOOKUP(Q19,$W$7:$X$12)</f>
+      <c r="X16" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="28">
+        <v>9</v>
+      </c>
+      <c r="Z16" s="55">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
+      <c r="C17" s="31" t="str">
+        <f ca="1">(TEXT(WeekStart+0+21,"mmm dd"))</f>
+        <v>May 22</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31" t="str">
+        <f ca="1">(TEXT(WeekStart+1+21,"mmm dd"))</f>
+        <v>May 23</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31" t="str">
+        <f ca="1">(TEXT(WeekStart+2+21,"mmm dd"))</f>
+        <v>May 24</v>
+      </c>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31" t="str">
+        <f ca="1">(TEXT(WeekStart+3+21,"mmm dd"))</f>
+        <v>May 25</v>
+      </c>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31" t="str">
+        <f ca="1">(TEXT(WeekStart+4+21,"mmm dd"))</f>
+        <v>May 26</v>
+      </c>
+      <c r="L17" s="31"/>
+      <c r="M17" s="33" t="str">
+        <f ca="1">(TEXT(WeekStart+5+21,"mmm dd"))</f>
+        <v>May 27</v>
+      </c>
+      <c r="N17" s="34"/>
+      <c r="O17" s="35" t="str">
+        <f ca="1">(TEXT(WeekStart+6+21,"mmm dd"))</f>
+        <v>May 28</v>
+      </c>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="3">
+        <f>LOOKUP(R14,$X$6:$Y$11)</f>
+        <v>2000</v>
+      </c>
+      <c r="V17" s="3">
+        <f>INDEX($Y$6:$Y$11,MATCH(R14,$X$6:$X$11,0))</f>
+        <v>2000</v>
+      </c>
+      <c r="X17" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y17" s="28">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="55">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45">
+        <v>1</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="54" t="str">
+        <f>B18</f>
+        <v>ca</v>
+      </c>
+      <c r="S18" s="51">
+        <f>SUM(D18,F18,H18,J18,L18,N18,P18)</f>
+        <v>1</v>
+      </c>
+      <c r="T18" s="52">
+        <f>LOOKUP(R18,$X$6:$Y$11)*S18</f>
+        <v>2000</v>
+      </c>
+      <c r="U18" s="3">
+        <f>LOOKUP(R15,$X$6:$Y$11)</f>
+        <v>3500</v>
+      </c>
+      <c r="V18" s="3">
+        <f t="shared" ref="V18:V19" si="9">INDEX($Y$6:$Y$11,MATCH(R15,$X$6:$X$11,0))</f>
+        <v>3500</v>
+      </c>
+      <c r="X18" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y18" s="28">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="55">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="46">
+        <v>2</v>
+      </c>
+      <c r="I19" s="44"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="54" t="str">
+        <f t="shared" ref="R19:R20" si="10">B19</f>
+        <v>cb</v>
+      </c>
+      <c r="S19" s="51">
+        <f>SUM(D19,F19,H19,J19,L19,N19,P19)</f>
+        <v>2</v>
+      </c>
+      <c r="T19" s="52">
+        <f t="shared" ref="T19:T20" si="11">LOOKUP(R19,$X$6:$Y$11)*S19</f>
+        <v>5000</v>
+      </c>
+      <c r="U19" s="3">
+        <f>LOOKUP(R16,$X$6:$Y$11)</f>
         <v>1000</v>
       </c>
-      <c r="U19" s="3">
+      <c r="V19" s="3">
         <f t="shared" si="9"/>
         <v>1000</v>
       </c>
-      <c r="W19" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="X19" s="40">
+      <c r="X19" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y19" s="28">
         <v>4</v>
       </c>
-      <c r="Y19" s="40">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
-      <c r="C20" s="19" t="str">
-        <f ca="1">(TEXT(WeekStart+0+21,"mmm dd"))</f>
-        <v>May 22</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19" t="str">
-        <f ca="1">(TEXT(WeekStart+1+21,"mmm dd"))</f>
-        <v>May 23</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19" t="str">
-        <f ca="1">(TEXT(WeekStart+2+21,"mmm dd"))</f>
-        <v>May 24</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19" t="str">
-        <f ca="1">(TEXT(WeekStart+3+21,"mmm dd"))</f>
-        <v>May 25</v>
-      </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19" t="str">
-        <f ca="1">(TEXT(WeekStart+4+21,"mmm dd"))</f>
-        <v>May 26</v>
-      </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="21" t="str">
-        <f ca="1">(TEXT(WeekStart+5+21,"mmm dd"))</f>
-        <v>May 27</v>
-      </c>
-      <c r="N20" s="20"/>
-      <c r="O20" s="22" t="str">
-        <f ca="1">(TEXT(WeekStart+6+21,"mmm dd"))</f>
-        <v>May 28</v>
-      </c>
-      <c r="P20" s="20"/>
-      <c r="S20" s="41"/>
-      <c r="W20" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="X20" s="40">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="40">
+      <c r="Z19" s="55">
         <v>14000</v>
       </c>
     </row>
-    <row r="21" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="S21" s="41"/>
-      <c r="W21" s="39" t="s">
+    <row r="20" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="47">
+        <v>3</v>
+      </c>
+      <c r="E20" s="44"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="54" t="str">
+        <f t="shared" si="10"/>
+        <v>ce</v>
+      </c>
+      <c r="S20" s="51">
+        <f>SUM(D20,F20,H20,J20,L20,N20,P20)</f>
+        <v>3</v>
+      </c>
+      <c r="T20" s="52">
+        <f t="shared" si="11"/>
+        <v>4500</v>
+      </c>
+      <c r="X20" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="X21" s="40">
+      <c r="Y20" s="28">
         <v>6</v>
       </c>
-      <c r="Y21" s="40">
+      <c r="Z20" s="55">
         <v>9000</v>
       </c>
     </row>
-    <row r="22" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="15"/>
+      <c r="C21" s="31" t="str">
+        <f ca="1">(TEXT(WeekStart+0+28,"mmm dd"))</f>
+        <v>May 29</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31" t="str">
+        <f ca="1">(TEXT(WeekStart+1+28,"mmm dd"))</f>
+        <v>May 30</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31" t="str">
+        <f ca="1">(TEXT(WeekStart+2+28,"mmm dd"))</f>
+        <v>May 31</v>
+      </c>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31" t="str">
+        <f ca="1">(TEXT(WeekStart+3+28,"mmm dd"))</f>
+        <v>Jun 01</v>
+      </c>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31" t="str">
+        <f ca="1">(TEXT(WeekStart+4+28,"mmm dd"))</f>
+        <v>Jun 02</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="33" t="str">
+        <f ca="1">(TEXT(WeekStart+5+28,"mmm dd"))</f>
+        <v>Jun 03</v>
+      </c>
+      <c r="N21" s="34"/>
+      <c r="O21" s="35" t="str">
+        <f ca="1">(TEXT(WeekStart+6+28,"mmm dd"))</f>
+        <v>Jun 04</v>
+      </c>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="53"/>
+      <c r="X21" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y21" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="55">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="26">
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="45">
         <v>1</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="3" t="str">
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="54" t="str">
         <f>B22</f>
         <v>ca</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="51">
         <f>SUM(D22,F22,H22,J22,L22,N22,P22)</f>
         <v>1</v>
       </c>
-      <c r="S22" s="41">
-        <f>LOOKUP(Q22,$W$7:$X$12)*R22</f>
+      <c r="T22" s="52">
+        <f>LOOKUP(R22,$X$6:$Y$11)*S22</f>
         <v>2000</v>
       </c>
-      <c r="T22" s="3">
-        <f>LOOKUP(Q22,$W$7:$X$12)</f>
+      <c r="U22" s="3">
+        <f>LOOKUP(R18,$X$6:$Y$11)</f>
         <v>2000</v>
       </c>
-      <c r="U22" s="3">
-        <f>INDEX($X$7:$X$12,MATCH(Q22,$W$7:$W$12,0))</f>
+      <c r="V22" s="3">
+        <f>INDEX($Y$6:$Y$11,MATCH(R18,$X$6:$X$11,0))</f>
         <v>2000</v>
       </c>
-      <c r="W22" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="X22" s="40">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="40">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X22" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="55"/>
+    </row>
+    <row r="23" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="27">
+      <c r="C23" s="44"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="46">
         <v>2</v>
       </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="3" t="str">
-        <f t="shared" ref="Q23:Q24" si="10">B23</f>
+      <c r="I23" s="44"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="54" t="str">
+        <f t="shared" ref="R23:R24" si="12">B23</f>
         <v>cb</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="51">
         <f>SUM(D23,F23,H23,J23,L23,N23,P23)</f>
         <v>2</v>
       </c>
-      <c r="S23" s="41">
-        <f t="shared" ref="S23:S24" si="11">LOOKUP(Q23,$W$7:$X$12)*R23</f>
+      <c r="T23" s="52">
+        <f t="shared" ref="T23:T24" si="13">LOOKUP(R23,$X$6:$Y$11)*S23</f>
         <v>5000</v>
       </c>
-      <c r="T23" s="3">
-        <f>LOOKUP(Q23,$W$7:$X$12)</f>
+      <c r="U23" s="3">
+        <f>LOOKUP(R19,$X$6:$Y$11)</f>
         <v>2500</v>
       </c>
-      <c r="U23" s="3">
-        <f t="shared" ref="U23:U24" si="12">INDEX($X$7:$X$12,MATCH(Q23,$W$7:$W$12,0))</f>
+      <c r="V23" s="3">
+        <f t="shared" ref="V23:V24" si="14">INDEX($Y$6:$Y$11,MATCH(R19,$X$6:$X$11,0))</f>
         <v>2500</v>
       </c>
-      <c r="W23" s="39" t="s">
+      <c r="X23" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-    </row>
-    <row r="24" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y23" s="28">
+        <v>34</v>
+      </c>
+      <c r="Z23" s="55">
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="28">
+      <c r="C24" s="44"/>
+      <c r="D24" s="47">
         <v>3</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="3" t="str">
-        <f t="shared" si="10"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="54" t="str">
+        <f t="shared" si="12"/>
         <v>ce</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="51">
         <f>SUM(D24,F24,H24,J24,L24,N24,P24)</f>
         <v>3</v>
       </c>
-      <c r="S24" s="41">
-        <f t="shared" si="11"/>
+      <c r="T24" s="52">
+        <f t="shared" si="13"/>
         <v>4500</v>
       </c>
-      <c r="T24" s="3">
-        <f>LOOKUP(Q24,$W$7:$X$12)</f>
+      <c r="U24" s="3">
+        <f>LOOKUP(R20,$X$6:$Y$11)</f>
         <v>1500</v>
       </c>
-      <c r="U24" s="3">
-        <f t="shared" si="12"/>
+      <c r="V24" s="3">
+        <f t="shared" si="14"/>
         <v>1500</v>
       </c>
-      <c r="W24" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="X24" s="40">
-        <v>34</v>
-      </c>
-      <c r="Y24" s="40">
-        <v>79000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="19" t="str">
-        <f ca="1">(TEXT(WeekStart+0+28,"mmm dd"))</f>
-        <v>May 29</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19" t="str">
-        <f ca="1">(TEXT(WeekStart+1+28,"mmm dd"))</f>
-        <v>May 30</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19" t="str">
-        <f ca="1">(TEXT(WeekStart+2+28,"mmm dd"))</f>
-        <v>May 31</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19" t="str">
-        <f ca="1">(TEXT(WeekStart+3+28,"mmm dd"))</f>
-        <v>Jun 01</v>
-      </c>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19" t="str">
-        <f ca="1">(TEXT(WeekStart+4+28,"mmm dd"))</f>
-        <v>Jun 02</v>
-      </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="21" t="str">
-        <f ca="1">(TEXT(WeekStart+5+28,"mmm dd"))</f>
-        <v>Jun 03</v>
-      </c>
-      <c r="N25" s="20"/>
-      <c r="O25" s="22" t="str">
-        <f ca="1">(TEXT(WeekStart+6+28,"mmm dd"))</f>
-        <v>Jun 04</v>
-      </c>
-      <c r="P25" s="20"/>
-      <c r="W25"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+    </row>
+    <row r="25" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q25" s="1"/>
       <c r="X25"/>
       <c r="Y25"/>
-    </row>
-    <row r="26" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="W26"/>
+      <c r="Z25"/>
+    </row>
+    <row r="26" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="X26"/>
       <c r="Y26"/>
-    </row>
-    <row r="27" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="26">
-        <v>1</v>
-      </c>
-      <c r="I27" s="42"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="3" t="str">
-        <f>B27</f>
-        <v>ca</v>
-      </c>
-      <c r="R27" s="3">
-        <f>SUM(D27,F27,H27,J27,L27,N27,P27)</f>
-        <v>1</v>
-      </c>
-      <c r="S27" s="41">
-        <f>LOOKUP(Q27,$W$7:$X$12)*R27</f>
-        <v>2000</v>
-      </c>
-      <c r="T27"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+    </row>
+    <row r="27" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="U27"/>
       <c r="V27"/>
       <c r="W27"/>
@@ -2320,40 +2407,9 @@
       <c r="AG27"/>
       <c r="AH27"/>
       <c r="AI27"/>
-    </row>
-    <row r="28" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="27">
-        <v>2</v>
-      </c>
-      <c r="I28" s="42"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="3" t="str">
-        <f t="shared" ref="Q28:Q29" si="13">B28</f>
-        <v>cb</v>
-      </c>
-      <c r="R28" s="3">
-        <f>SUM(D28,F28,H28,J28,L28,N28,P28)</f>
-        <v>2</v>
-      </c>
-      <c r="S28" s="41">
-        <f t="shared" ref="S28:S29" si="14">LOOKUP(Q28,$W$7:$X$12)*R28</f>
-        <v>5000</v>
-      </c>
-      <c r="T28"/>
+      <c r="AJ27"/>
+    </row>
+    <row r="28" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="U28"/>
       <c r="V28"/>
       <c r="W28"/>
@@ -2369,40 +2425,9 @@
       <c r="AG28"/>
       <c r="AH28"/>
       <c r="AI28"/>
-    </row>
-    <row r="29" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="28">
-        <v>3</v>
-      </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>ce</v>
-      </c>
-      <c r="R29" s="3">
-        <f>SUM(D29,F29,H29,J29,L29,N29,P29)</f>
-        <v>3</v>
-      </c>
-      <c r="S29" s="41">
-        <f t="shared" si="14"/>
-        <v>4500</v>
-      </c>
-      <c r="T29"/>
+      <c r="AJ28"/>
+    </row>
+    <row r="29" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="U29"/>
       <c r="V29"/>
       <c r="W29"/>
@@ -2418,9 +2443,9 @@
       <c r="AG29"/>
       <c r="AH29"/>
       <c r="AI29"/>
-    </row>
-    <row r="30" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="T30"/>
+      <c r="AJ29"/>
+    </row>
+    <row r="30" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="U30"/>
       <c r="V30"/>
       <c r="W30"/>
@@ -2436,8 +2461,11 @@
       <c r="AG30"/>
       <c r="AH30"/>
       <c r="AI30"/>
-    </row>
-    <row r="31" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ30"/>
+    </row>
+    <row r="31" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R31"/>
+      <c r="S31"/>
       <c r="T31"/>
       <c r="U31"/>
       <c r="V31"/>
@@ -2454,8 +2482,11 @@
       <c r="AG31"/>
       <c r="AH31"/>
       <c r="AI31"/>
-    </row>
-    <row r="32" spans="2:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ31"/>
+    </row>
+    <row r="32" spans="2:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R32"/>
+      <c r="S32"/>
       <c r="T32"/>
       <c r="U32"/>
       <c r="V32"/>
@@ -2472,8 +2503,11 @@
       <c r="AG32"/>
       <c r="AH32"/>
       <c r="AI32"/>
-    </row>
-    <row r="33" spans="17:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ32"/>
+    </row>
+    <row r="33" spans="18:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R33"/>
+      <c r="S33"/>
       <c r="T33"/>
       <c r="U33"/>
       <c r="V33"/>
@@ -2490,8 +2524,11 @@
       <c r="AG33"/>
       <c r="AH33"/>
       <c r="AI33"/>
-    </row>
-    <row r="34" spans="17:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ33"/>
+    </row>
+    <row r="34" spans="18:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R34"/>
+      <c r="S34"/>
       <c r="T34"/>
       <c r="U34"/>
       <c r="V34"/>
@@ -2508,8 +2545,11 @@
       <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34"/>
-    </row>
-    <row r="35" spans="17:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ34"/>
+    </row>
+    <row r="35" spans="18:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R35"/>
+      <c r="S35"/>
       <c r="T35"/>
       <c r="U35"/>
       <c r="V35"/>
@@ -2526,9 +2566,9 @@
       <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35"/>
-    </row>
-    <row r="36" spans="17:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q36"/>
+      <c r="AJ35"/>
+    </row>
+    <row r="36" spans="18:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
@@ -2547,9 +2587,9 @@
       <c r="AG36"/>
       <c r="AH36"/>
       <c r="AI36"/>
-    </row>
-    <row r="37" spans="17:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q37"/>
+      <c r="AJ36"/>
+    </row>
+    <row r="37" spans="18:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R37"/>
       <c r="S37"/>
       <c r="T37"/>
@@ -2558,8 +2598,6 @@
       <c r="W37"/>
       <c r="X37"/>
       <c r="Y37"/>
-      <c r="Z37"/>
-      <c r="AA37"/>
       <c r="AB37"/>
       <c r="AC37"/>
       <c r="AD37"/>
@@ -2568,9 +2606,9 @@
       <c r="AG37"/>
       <c r="AH37"/>
       <c r="AI37"/>
-    </row>
-    <row r="38" spans="17:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q38"/>
+      <c r="AJ37"/>
+    </row>
+    <row r="38" spans="18:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R38"/>
       <c r="S38"/>
       <c r="T38"/>
@@ -2578,9 +2616,9 @@
       <c r="V38"/>
       <c r="W38"/>
       <c r="X38"/>
-    </row>
-    <row r="39" spans="17:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q39"/>
+      <c r="Y38"/>
+    </row>
+    <row r="39" spans="18:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R39"/>
       <c r="S39"/>
       <c r="T39"/>
@@ -2588,9 +2626,9 @@
       <c r="V39"/>
       <c r="W39"/>
       <c r="X39"/>
-    </row>
-    <row r="40" spans="17:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q40"/>
+      <c r="Y39"/>
+    </row>
+    <row r="40" spans="18:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R40"/>
       <c r="S40"/>
       <c r="T40"/>
@@ -2598,9 +2636,9 @@
       <c r="V40"/>
       <c r="W40"/>
       <c r="X40"/>
-    </row>
-    <row r="41" spans="17:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q41"/>
+      <c r="Y40"/>
+    </row>
+    <row r="41" spans="18:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R41"/>
       <c r="S41"/>
       <c r="T41"/>
@@ -2608,9 +2646,9 @@
       <c r="V41"/>
       <c r="W41"/>
       <c r="X41"/>
-    </row>
-    <row r="42" spans="17:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q42"/>
+      <c r="Y41"/>
+    </row>
+    <row r="42" spans="18:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R42"/>
       <c r="S42"/>
       <c r="T42"/>
@@ -2618,9 +2656,9 @@
       <c r="V42"/>
       <c r="W42"/>
       <c r="X42"/>
-    </row>
-    <row r="43" spans="17:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q43"/>
+      <c r="Y42"/>
+    </row>
+    <row r="43" spans="18:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R43"/>
       <c r="S43"/>
       <c r="T43"/>
@@ -2628,9 +2666,9 @@
       <c r="V43"/>
       <c r="W43"/>
       <c r="X43"/>
-    </row>
-    <row r="44" spans="17:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q44"/>
+      <c r="Y43"/>
+    </row>
+    <row r="44" spans="18:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R44"/>
       <c r="S44"/>
       <c r="T44"/>
@@ -2638,9 +2676,9 @@
       <c r="V44"/>
       <c r="W44"/>
       <c r="X44"/>
-    </row>
-    <row r="45" spans="17:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q45"/>
+      <c r="Y44"/>
+    </row>
+    <row r="45" spans="18:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R45"/>
       <c r="S45"/>
       <c r="T45"/>
@@ -2648,9 +2686,9 @@
       <c r="V45"/>
       <c r="W45"/>
       <c r="X45"/>
-    </row>
-    <row r="46" spans="17:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q46"/>
+      <c r="Y45"/>
+    </row>
+    <row r="46" spans="18:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R46"/>
       <c r="S46"/>
       <c r="T46"/>
@@ -2658,120 +2696,91 @@
       <c r="V46"/>
       <c r="W46"/>
       <c r="X46"/>
-    </row>
-    <row r="47" spans="17:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q47"/>
+      <c r="Y46"/>
+    </row>
+    <row r="47" spans="18:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
       <c r="U47"/>
       <c r="V47"/>
       <c r="W47"/>
       <c r="X47"/>
-    </row>
-    <row r="48" spans="17:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q48"/>
+      <c r="Y47"/>
+    </row>
+    <row r="48" spans="18:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R48"/>
-      <c r="S48"/>
-      <c r="T48"/>
       <c r="U48"/>
       <c r="V48"/>
       <c r="W48"/>
       <c r="X48"/>
-    </row>
-    <row r="49" spans="17:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q49"/>
+      <c r="Y48"/>
+    </row>
+    <row r="49" spans="18:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R49"/>
-      <c r="S49"/>
-      <c r="T49"/>
       <c r="U49"/>
       <c r="V49"/>
       <c r="W49"/>
       <c r="X49"/>
-    </row>
-    <row r="50" spans="17:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q50"/>
+      <c r="Y49"/>
+    </row>
+    <row r="50" spans="18:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
       <c r="U50"/>
       <c r="V50"/>
       <c r="W50"/>
       <c r="X50"/>
-    </row>
-    <row r="51" spans="17:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q51"/>
+      <c r="Y50"/>
+    </row>
+    <row r="51" spans="18:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
       <c r="U51"/>
       <c r="V51"/>
       <c r="W51"/>
-      <c r="X51"/>
-    </row>
-    <row r="52" spans="17:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q52"/>
-    </row>
-    <row r="53" spans="17:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q53"/>
-    </row>
-    <row r="54" spans="17:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q54"/>
-    </row>
-    <row r="55" spans="17:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q55"/>
-    </row>
-    <row r="56" spans="17:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q56"/>
-    </row>
-    <row r="57" spans="17:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q57"/>
-    </row>
-    <row r="58" spans="17:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q58"/>
-    </row>
-    <row r="59" spans="17:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q59"/>
+    </row>
+    <row r="52" spans="18:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R52"/>
+    </row>
+    <row r="53" spans="18:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R53"/>
+    </row>
+    <row r="54" spans="18:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R54"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
+  <mergeCells count="49">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
@@ -2788,14 +2797,13 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <dataValidations xWindow="820" yWindow="305" count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Present" sqref="Q3:R4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Absent - excused" sqref="T3:U5 S3:S4"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <dataValidations disablePrompts="1" xWindow="820" yWindow="305" count="5">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Absent - excused" sqref="U3:V5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Week Date in next cell G5." sqref="C1:D1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Week Date (i-e Monday Date) in this cell. Dates for Grid below will be auto-calculated." sqref="O3:P3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Homework Log" prompt="Help your students get more organized with this ready-to-print homework log to track their assignments. _x000a__x000a_" sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Homework Date header, these dates are calculated on basis of your input in cell D4." sqref="O15 O5 O10 C5 E5 G5 I5 K5 M5 C10 E10 G10 I10 K10 M10 C15 E15 G15 I15 K15 M15 C20 E20 G20 I20 K20 M20 O20 C25 E25 G25 I25 K25 M25 O25"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Homework Date header, these dates are calculated on basis of your input in cell D4." sqref="O13 O5 O9 C5 E5 G5 I5 K5 M5 C9 E9 G9 I9 K9 M9 C13 E13 G13 I13 K13 M13 C17 E17 G17 I17 K17 M17 O17 C21 E21 G21 I21 K21 M21 O21"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
